--- a/biology/Mycologie/Bolet_blafard/Bolet_blafard.xlsx
+++ b/biology/Mycologie/Bolet_blafard/Bolet_blafard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Suillellus luridus
 Suillellus luridus, le Bolet blafard, anciennement Boletus luridus, est une espèce de champignons (Fungi) basidiomycètes de la famille des Boletaceae et du genre Suillellus. Présent dans les forêts de l'hémisphère nord, il a une forme boletoïde obèse caractérisée par un pied trapu et un chapeau hémisphérique rappelant la silhouette des cèpes, mais il s'en distingue notamment par des teintes orangées et une chair bleuissante. Un autre caractère déterminant de l'espèce est sa fameuse "ligne de Bataille", une ligne rouge entre l'hyménophore et la chair du chapeau, nommée à la mémoire de Frédéric Bataille, le poète mycologue qui la signala le premier.
-Le Bolet blafard a une apparence très variable, tant sur ses teintes que sa silhouette, il présente de nombreuses formes. C'est un champignon comestible cuit mais toxique cru ou mal cuit[1].
+Le Bolet blafard a une apparence très variable, tant sur ses teintes que sa silhouette, il présente de nombreuses formes. C'est un champignon comestible cuit mais toxique cru ou mal cuit.
 </t>
         </is>
       </c>
@@ -513,12 +525,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Suillellus luridus (Schaeff.) Murrill[2]. 
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus luridus Schaeff.[2].
-Synonymes
-Suillellus luridus a pour synonymes[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Suillellus luridus (Schaeff.) Murrill. 
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus luridus Schaeff..
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bolet_blafard</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_blafard</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suillellus luridus a pour synonymes :
 Boletus erythrentheron Bezdĕk
 Boletus luridus Fr.
 Boletus luridus Schaeff.
@@ -539,46 +588,118 @@
 Suillus luridus (Schaeff.) Richon &amp; Roze
 Suillus rubeolarius (Bull.) Poiret
 Tubiporus luridus (Schaeff.) P.Karst.
-Phylogénie
-Décrit pour la première fois en 1774, l'espèce a été transférée dans différents genres de Boletaceae au cours de son histoire taxonomique, bien qu'elle ait conservé l'épithète spécifique original que lui avait donné le botaniste allemand Jacob Christian Schaeffer jusqu'à son transfert dans le genre Suillellus en 2014.
-La variété erythropus est publiée comme «bêta» en 1821 [3] mais est synonyme de Boletus luridiformis (= Neoboletus erythropus)[4]. Le Bolet blafard est proche phylogénétiquement de Butyriboletus fechtneri (le Bolet pâle) et de Neoboletus erythropus (le Bolet à pied rouge)[5].
-Noms vulgaires et vernaculaires
-Le nom vulgaire de Suillellus luridus repris par les auteurs francophones est Bolet blafard[6],[7]. Le nom français "blafard" serait dû à la couleur du chapeau à la fois pâle et terne (de l'aube, ou de mastic de vitrier). On rencontre plus rarement les termes vernaculaires de Bolet luride ou Cèpe luride[1],[8] et de Bolet blême[1],[9].
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Bolet_blafard</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bolet_blafard</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décrit pour la première fois en 1774, l'espèce a été transférée dans différents genres de Boletaceae au cours de son histoire taxonomique, bien qu'elle ait conservé l'épithète spécifique original que lui avait donné le botaniste allemand Jacob Christian Schaeffer jusqu'à son transfert dans le genre Suillellus en 2014.
+La variété erythropus est publiée comme «bêta» en 1821  mais est synonyme de Boletus luridiformis (= Neoboletus erythropus). Le Bolet blafard est proche phylogénétiquement de Butyriboletus fechtneri (le Bolet pâle) et de Neoboletus erythropus (le Bolet à pied rouge).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bolet_blafard</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_blafard</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vulgaire de Suillellus luridus repris par les auteurs francophones est Bolet blafard,. Le nom français "blafard" serait dû à la couleur du chapeau à la fois pâle et terne (de l'aube, ou de mastic de vitrier). On rencontre plus rarement les termes vernaculaires de Bolet luride ou Cèpe luride, et de Bolet blême,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bolet_blafard</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_blafard</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes, terminés par des pores, se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond, recouvert d'une cuticule, devenant convexe à mesure qu’ils vieillissent. Les caractéristiques morphologiques de Suillellus luridus,le Bolet blafard, sont les suivantes :
-Son chapeau mesure de 5 à 20 cm, il est sec et souvent velouté. La cuticule est mate, de couleur assez variable, de jaunâtre à brun olivacé, ochracé rosâtre à rose, brune, parfois teintée d'orange et parfois beaucoup plus rouge. Le bord du chapeau, de la même couleur, est régulier et dépasse légèrement les tubes[10],[11]. 
-Son hyménophore présente des tubes jaune clair puis olivâtres et bleuissant. Les pores à leur bout sont fins, de couleur jaune puis rapidement rouge orangé, bleuissant également à la pression ou à la coupe. À la coupe on observera la plupart du temps ce que l'on appelle la "ligne de Bataille", une ligne rougeâtre entre la chair du chapeau et le haut des tubes tubes (elle serait peu marquée dans les récoltes du sud de la Loire selon Alain Estades et Serge Poumarat)[10].
-Son pied mesure 5 à 15 cm x 1,5 à 5 cm, de couleur jaune plus au moins orangé, orné d'un net réseau rougeâtre en relief. Sa silhouette peut être cylindrique, fusiforme ou obèse[10]. 
-La chair est épaisse, blanchâtre ou jaunâtre et rougit sous les tubes. Elle bleuit rapidement et fortement à la coupe du champignon, elle est dite cyanescente. Parfois elle se tache de noir aux endroits abîmés, (par des morsures de limace) : elle est dite alors nigrescente. Elle devient plus claire quand elle sèche. Sa saveur est douce et son odeur fongique est faible. sa sporée est de couleur brun olivâtre[10],[11].
+Son chapeau mesure de 5 à 20 cm, il est sec et souvent velouté. La cuticule est mate, de couleur assez variable, de jaunâtre à brun olivacé, ochracé rosâtre à rose, brune, parfois teintée d'orange et parfois beaucoup plus rouge. Le bord du chapeau, de la même couleur, est régulier et dépasse légèrement les tubes,. 
+Son hyménophore présente des tubes jaune clair puis olivâtres et bleuissant. Les pores à leur bout sont fins, de couleur jaune puis rapidement rouge orangé, bleuissant également à la pression ou à la coupe. À la coupe on observera la plupart du temps ce que l'on appelle la "ligne de Bataille", une ligne rougeâtre entre la chair du chapeau et le haut des tubes tubes (elle serait peu marquée dans les récoltes du sud de la Loire selon Alain Estades et Serge Poumarat).
+Son pied mesure 5 à 15 cm x 1,5 à 5 cm, de couleur jaune plus au moins orangé, orné d'un net réseau rougeâtre en relief. Sa silhouette peut être cylindrique, fusiforme ou obèse. 
+La chair est épaisse, blanchâtre ou jaunâtre et rougit sous les tubes. Elle bleuit rapidement et fortement à la coupe du champignon, elle est dite cyanescente. Parfois elle se tache de noir aux endroits abîmés, (par des morsures de limace) : elle est dite alors nigrescente. Elle devient plus claire quand elle sèche. Sa saveur est douce et son odeur fongique est faible. sa sporée est de couleur brun olivâtre,.
 	Principaux caractères distinctifs
 			Sporophore à silhouette boletoïde.
 			Chapeau blafard, typiquement brun olivâtre.
@@ -586,17 +707,87 @@
 			Pied orné d'un réseau.
 			Ligne rouge "de Bataille" souvent présente entre les tubes et la chair.
 			Chair intensément bleuissante à la coupe.
-Réactions chimiques
-Certaines parties de Suillellus luridus vont prendre une couleur particulière après contact avec les réactifs suivants :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bolet_blafard</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_blafard</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Réactions chimiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines parties de Suillellus luridus vont prendre une couleur particulière après contact avec les réactifs suivants :
 rouge foncé au KOH sur le chapeau.
 orangé terne au KOH sur la chair.
 négative, jaunâtre à orangée au NH4OH sur le chapeau.
 jaune à orangée au NH4OH sur la chair.
 gris olive au FeSO4 sur le chapeau.
 négative à jaune olive terne au FeSO4 sur la chair.
-bleu foncé en taches au Melzer après que le bleuissement naturel soit pâli sur la chair[12].
-Caractéristiques microscopiques
-Ses spores mesurent 11,5 à 16 µm × 5-7,5 µm, elles sont elliptiques à fusiformes, lisses[13].
+bleu foncé en taches au Melzer après que le bleuissement naturel soit pâli sur la chair.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bolet_blafard</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_blafard</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 11,5 à 16 µm × 5-7,5 µm, elles sont elliptiques à fusiformes, lisses.
 </t>
         </is>
       </c>
